--- a/Fase 2/Evidencias Proyecto/Evidencias de documentación/Fase 4: Pruebas/Casos_de_Prueba.xlsx
+++ b/Fase 2/Evidencias Proyecto/Evidencias de documentación/Fase 4: Pruebas/Casos_de_Prueba.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="155">
   <si>
     <t>Casos de Pruebas de Software</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>Ingresar los datos para la creacion de un nuevo usuario</t>
-  </si>
-  <si>
-    <t>00/11/2024</t>
   </si>
   <si>
     <t>Gestión de Usuarios</t>
@@ -214,9 +211,6 @@
     <t>Crea una nueva Venta</t>
   </si>
   <si>
-    <t>00/11/2025</t>
-  </si>
-  <si>
     <t>Gestión de Ventas</t>
   </si>
   <si>
@@ -235,9 +229,6 @@
     <t>Poder alterar o cambiar datos de alguna Venta en especifico</t>
   </si>
   <si>
-    <t>00/11/2026</t>
-  </si>
-  <si>
     <t>Ir a la pagina Ver Ventas Activas, selecionar el icono de editar de alguna Venta, elegir los campos a cambiar y click en el boton Guardar Cambios</t>
   </si>
   <si>
@@ -251,9 +242,6 @@
   </si>
   <si>
     <t>Eliminar una Venta en especifico</t>
-  </si>
-  <si>
-    <t>00/11/2027</t>
   </si>
   <si>
     <t>Ir a la pagina Ver Ventas Activas, selecionar el icono rojo de basurero y darle al boton de Confirmar</t>
@@ -1115,41 +1103,41 @@
       <c r="C6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="9">
+        <v>45603.0</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="F6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="G6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="H6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="I6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="J6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="K6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="L6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="M6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="8" t="s">
-        <v>30</v>
-      </c>
       <c r="N6" s="9">
-        <v>44491.0</v>
+        <v>45603.0</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P6" s="10"/>
       <c r="Q6" s="2"/>
@@ -1165,49 +1153,49 @@
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="C7" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="D7" s="9">
+        <v>45603.0</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="8" t="s">
+      <c r="H7" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="I7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>36</v>
-      </c>
       <c r="M7" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N7" s="9">
-        <v>44491.0</v>
+        <v>45603.0</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P7" s="10"/>
       <c r="R7" s="2"/>
@@ -1222,49 +1210,49 @@
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="C8" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="D8" s="9">
+        <v>45603.0</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="8" t="s">
+      <c r="H8" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="I8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="I8" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>42</v>
-      </c>
       <c r="M8" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N8" s="9">
-        <v>44491.0</v>
+        <v>45603.0</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P8" s="10"/>
       <c r="Q8" s="2"/>
@@ -1280,49 +1268,49 @@
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="C9" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="D9" s="9">
+        <v>45603.0</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>21</v>
+      <c r="F9" s="8" t="s">
+        <v>22</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="G9" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="8" t="s">
+      <c r="H9" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="I9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="I9" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>49</v>
-      </c>
       <c r="M9" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N9" s="9">
-        <v>44492.0</v>
+        <v>45603.0</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P9" s="10"/>
       <c r="Q9" s="2"/>
@@ -1338,49 +1326,49 @@
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="C10" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="D10" s="9">
+        <v>45603.0</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="8" t="s">
+      <c r="H10" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="I10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="I10" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>55</v>
-      </c>
       <c r="M10" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N10" s="9">
-        <v>44493.0</v>
+        <v>45603.0</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P10" s="10"/>
       <c r="Q10" s="2"/>
@@ -1396,49 +1384,49 @@
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="C11" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="D11" s="9">
+        <v>45603.0</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="8" t="s">
+      <c r="H11" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="I11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I11" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>61</v>
-      </c>
       <c r="M11" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N11" s="9">
-        <v>44494.0</v>
+        <v>45603.0</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P11" s="10"/>
       <c r="Q11" s="2"/>
@@ -1454,49 +1442,49 @@
     </row>
     <row r="12">
       <c r="A12" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="C12" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="D12" s="9">
+        <v>45603.0</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="F12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="H12" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="8" t="s">
-        <v>23</v>
+      <c r="I12" s="8" t="s">
+        <v>25</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="I12" s="8" t="s">
+      <c r="J12" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="8" t="s">
+      <c r="K12" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="K12" s="8" t="s">
-        <v>28</v>
-      </c>
       <c r="L12" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N12" s="9">
-        <v>44495.0</v>
+        <v>45603.0</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P12" s="11"/>
       <c r="Q12" s="12"/>
@@ -1512,49 +1500,49 @@
     </row>
     <row r="13">
       <c r="A13" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="D13" s="9">
+        <v>45603.0</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="H13" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>72</v>
+      <c r="I13" s="8" t="s">
+        <v>25</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="I13" s="8" t="s">
+      <c r="J13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="J13" s="8" t="s">
+      <c r="K13" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="K13" s="8" t="s">
-        <v>28</v>
-      </c>
       <c r="L13" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N13" s="9">
-        <v>44496.0</v>
+        <v>45603.0</v>
       </c>
       <c r="O13" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P13" s="11"/>
       <c r="Q13" s="12"/>
@@ -1570,49 +1558,49 @@
     </row>
     <row r="14">
       <c r="A14" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="9">
+        <v>45603.0</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="H14" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>77</v>
+      <c r="I14" s="8" t="s">
+        <v>25</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="I14" s="8" t="s">
+      <c r="J14" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="J14" s="8" t="s">
+      <c r="K14" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="K14" s="8" t="s">
-        <v>28</v>
-      </c>
       <c r="L14" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N14" s="9">
-        <v>44497.0</v>
+        <v>45603.0</v>
       </c>
       <c r="O14" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P14" s="11"/>
       <c r="Q14" s="12"/>
@@ -1628,49 +1616,49 @@
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="9">
+        <v>45603.0</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="I15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="K15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>87</v>
-      </c>
       <c r="M15" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N15" s="9">
-        <v>44491.0</v>
+        <v>45603.0</v>
       </c>
       <c r="O15" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P15" s="10"/>
       <c r="Q15" s="2"/>
@@ -1686,49 +1674,49 @@
     </row>
     <row r="16">
       <c r="A16" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="9">
+        <v>45603.0</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="H16" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="I16" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="L16" s="8" t="s">
-        <v>94</v>
-      </c>
       <c r="M16" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N16" s="9">
-        <v>44491.0</v>
+        <v>45603.0</v>
       </c>
       <c r="O16" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P16" s="11"/>
       <c r="Q16" s="12"/>
@@ -1744,49 +1732,49 @@
     </row>
     <row r="17">
       <c r="A17" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="9">
+        <v>45603.0</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="H17" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="I17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L17" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="L17" s="8" t="s">
-        <v>101</v>
-      </c>
       <c r="M17" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N17" s="9">
-        <v>44491.0</v>
+        <v>45603.0</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P17" s="10"/>
       <c r="Q17" s="2"/>
@@ -1802,49 +1790,49 @@
     </row>
     <row r="18">
       <c r="A18" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" s="9">
+        <v>45603.0</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="H18" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="I18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L18" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="L18" s="8" t="s">
-        <v>107</v>
-      </c>
       <c r="M18" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N18" s="9">
-        <v>44491.0</v>
+        <v>45603.0</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P18" s="10"/>
       <c r="Q18" s="2"/>
@@ -1860,49 +1848,49 @@
     </row>
     <row r="19">
       <c r="A19" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19" s="9">
+        <v>45603.0</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="H19" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="I19" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J19" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>21</v>
+      <c r="K19" s="8" t="s">
+        <v>61</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="L19" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="F19" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="L19" s="8" t="s">
-        <v>115</v>
-      </c>
       <c r="M19" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N19" s="9">
-        <v>44491.0</v>
+        <v>45603.0</v>
       </c>
       <c r="O19" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P19" s="11"/>
       <c r="Q19" s="12"/>
@@ -1918,49 +1906,49 @@
     </row>
     <row r="20">
       <c r="A20" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" s="9">
+        <v>45603.0</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="H20" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="I20" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L20" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="L20" s="8" t="s">
-        <v>121</v>
-      </c>
       <c r="M20" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N20" s="9">
-        <v>44491.0</v>
+        <v>45603.0</v>
       </c>
       <c r="O20" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P20" s="11"/>
       <c r="Q20" s="12"/>
@@ -1976,49 +1964,49 @@
     </row>
     <row r="21" ht="27.0" customHeight="1">
       <c r="A21" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21" s="9">
+        <v>45603.0</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="H21" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="I21" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L21" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="L21" s="8" t="s">
-        <v>127</v>
-      </c>
       <c r="M21" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N21" s="9">
-        <v>44491.0</v>
+        <v>45603.0</v>
       </c>
       <c r="O21" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P21" s="11"/>
       <c r="Q21" s="12"/>
@@ -2034,49 +2022,49 @@
     </row>
     <row r="22" ht="27.0" customHeight="1">
       <c r="A22" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D22" s="9">
+        <v>45603.0</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="H22" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>129</v>
+      <c r="I22" s="8" t="s">
+        <v>25</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="I22" s="8" t="s">
+      <c r="J22" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="J22" s="8" t="s">
+      <c r="K22" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="K22" s="8" t="s">
-        <v>28</v>
-      </c>
       <c r="L22" s="8" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N22" s="9">
-        <v>44492.0</v>
+        <v>45603.0</v>
       </c>
       <c r="O22" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P22" s="11"/>
       <c r="Q22" s="12"/>
@@ -2092,49 +2080,49 @@
     </row>
     <row r="23">
       <c r="A23" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D23" s="9">
+        <v>45603.0</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="H23" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="I23" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L23" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="L23" s="8" t="s">
-        <v>138</v>
-      </c>
       <c r="M23" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N23" s="9">
-        <v>44491.0</v>
+        <v>45603.0</v>
       </c>
       <c r="O23" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P23" s="11"/>
       <c r="Q23" s="12"/>
@@ -28556,7 +28544,7 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="15" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -28614,7 +28602,7 @@
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="16" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -28644,10 +28632,10 @@
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="17" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -28680,7 +28668,7 @@
         <v>ID</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -28713,7 +28701,7 @@
         <v>Caso de Prueba</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -28746,7 +28734,7 @@
         <v>Descripción</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -28779,7 +28767,7 @@
         <v>Fecha</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -28812,7 +28800,7 @@
         <v>Área Funcional</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -28845,7 +28833,7 @@
         <v>Funcionalidad</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -28878,7 +28866,7 @@
         <v>Datos de Entrada</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -28911,7 +28899,7 @@
         <v>Resultado Esperado</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -28944,7 +28932,7 @@
         <v>Requerimientos de Ambiente</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -28977,7 +28965,7 @@
         <v>Procedimientos Especiales</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -29010,7 +28998,7 @@
         <v>Dependencias</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -29039,7 +29027,7 @@
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="A17" s="19" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B17" s="20"/>
       <c r="C17" s="2"/>
@@ -29073,7 +29061,7 @@
         <v>Resultado Obtenido</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -29106,7 +29094,7 @@
         <v>Estado</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -29139,7 +29127,7 @@
         <v>Última Fecha de Estado</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -29172,7 +29160,7 @@
         <v>Observaciones</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
